--- a/[2분반]2013136059_송재혁_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2013136059_송재혁_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Song\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Song\Desktop\2016FW\kutmicro2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>아두이노 초음파 센서 5Pin C25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피에조 부저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/icrobot/products/406176223?NaPm=ct%3Diuicrnuw%7Cci%3D65279cdb882c2a37beaf44c75ca1445d1a847776%7Ctr%3Dslsl%7Csn%3D347641%7Cic%3D%7Chk%3D4d491bd09b8d1ea420922113e3474da535f3d65c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,6 +249,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,18 +268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,66 +629,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>2013136059</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -712,16 +720,16 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>4650</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>4650</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2"/>
@@ -733,27 +741,39 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>5940</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>11880</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>990</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1980</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,8 +846,8 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="9">
-        <v>16530</v>
+      <c r="E17" s="6">
+        <v>18510</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -844,9 +864,10 @@
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1"/>
     <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>